--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
@@ -40,48 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>hate</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -100,25 +100,22 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>new</t>
+    <t>much</t>
   </si>
   <si>
     <t>social</t>
@@ -127,10 +124,13 @@
     <t>documentary</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
@@ -569,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9393939393939394</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K4">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.7666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.6896551724137931</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K7">
-        <v>0.6842105263157895</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.675</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -869,13 +869,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.644927536231884</v>
+        <v>0.675</v>
       </c>
       <c r="C9">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -887,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.5666666666666667</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -919,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -937,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.3939393939393939</v>
+        <v>0.3125</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -969,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5217391304347826</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.2916666666666667</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1019,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5142857142857142</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K12">
-        <v>0.2033898305084746</v>
+        <v>0.1384335154826958</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>47</v>
+        <v>946</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1093,13 @@
         <v>35</v>
       </c>
       <c r="K13">
-        <v>0.1347905282331512</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L13">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>950</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>0.08480565371024736</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>259</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4680851063829787</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1187,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15">
-        <v>0.06024096385542169</v>
+        <v>0.05731523378582202</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4642857142857143</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K16">
-        <v>0.05925925925925926</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>508</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4358974358974359</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1287,31 +1287,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>0.02651296829971182</v>
+        <v>0.03341013824884793</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1689</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1319,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1538461538461539</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1337,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K18">
-        <v>0.02272727272727273</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:17">
